--- a/uploads/ClosingExcel.xlsx
+++ b/uploads/ClosingExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dex\Desktop\CB_React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{BD97AFFC-204F-4C4A-9F95-98D233E429A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26850" windowHeight="10905" xr2:uid="{BD97AFFC-204F-4C4A-9F95-98D233E429A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,13 +381,13 @@
     <t>Andy Category 3</t>
   </si>
   <si>
-    <t>Title 4</t>
-  </si>
-  <si>
     <t>Value 4</t>
   </si>
   <si>
-    <t>Category 7</t>
+    <t>Title 7</t>
+  </si>
+  <si>
+    <t>Category 10</t>
   </si>
 </sst>
 </file>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A3968-56C9-41CE-A538-20733FBC7696}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,10 +2015,10 @@
         <v>120</v>
       </c>
       <c r="C65" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>

--- a/uploads/ClosingExcel.xlsx
+++ b/uploads/ClosingExcel.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dex\Desktop\CB_React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
+  <si>
+    <t xml:space="preserve">SAMPLE CLOSING CHECKLIST-HOUSING/COMMERCIAL ACQUISITION CLOSING CHECK LIST
+</t>
+  </si>
   <si>
     <t>CB ID</t>
   </si>
@@ -75,12 +85,6 @@
     <t>Seller</t>
   </si>
   <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>I'm Loving It!</t>
-  </si>
-  <si>
     <t>www.mcdonalds.com</t>
   </si>
   <si>
@@ -93,9 +97,6 @@
     <t>Purchase and Sale Date</t>
   </si>
   <si>
-    <t>link to purchase and sale agreement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amendments to Purchase &amp; Sale </t>
   </si>
   <si>
@@ -138,12 +139,6 @@
     <t>Purchase Price</t>
   </si>
   <si>
-    <t>use from florida example</t>
-  </si>
-  <si>
-    <t>Link to closing statemnet</t>
-  </si>
-  <si>
     <t>Third Parties</t>
   </si>
   <si>
@@ -186,12 +181,6 @@
     <t># of Tenants</t>
   </si>
   <si>
-    <t>Taxes and Insurance</t>
-  </si>
-  <si>
-    <t>Use from Florida Example</t>
-  </si>
-  <si>
     <t>HR Infromation</t>
   </si>
   <si>
@@ -264,9 +253,6 @@
     <t>Site Visit</t>
   </si>
   <si>
-    <t>Roof Conditiona</t>
-  </si>
-  <si>
     <t>Water Heater Condition</t>
   </si>
   <si>
@@ -285,15 +271,9 @@
     <t>Lawsuits against property</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Parking Spaces Required</t>
   </si>
   <si>
-    <t>Parking Saces Actual</t>
-  </si>
-  <si>
     <t>Document Custody</t>
   </si>
   <si>
@@ -324,94 +304,213 @@
     <t xml:space="preserve">Rent Roll </t>
   </si>
   <si>
-    <t>Dex's Category</t>
-  </si>
-  <si>
-    <t>Some Value</t>
-  </si>
-  <si>
-    <t>http://facebook.com</t>
-  </si>
-  <si>
-    <t>Dex title</t>
-  </si>
-  <si>
-    <t>555 Test</t>
-  </si>
-  <si>
-    <t>New Category</t>
-  </si>
-  <si>
-    <t>New Value</t>
-  </si>
-  <si>
-    <t>http://google.com</t>
-  </si>
-  <si>
-    <t>New Title 2</t>
-  </si>
-  <si>
-    <t>Andy Category</t>
-  </si>
-  <si>
-    <t>Andy Title</t>
-  </si>
-  <si>
-    <t>Andy Value</t>
-  </si>
-  <si>
-    <t>http://andy.com</t>
-  </si>
-  <si>
-    <t>Andy Title 2</t>
-  </si>
-  <si>
-    <t>Andy Value 2</t>
-  </si>
-  <si>
-    <t>Andy Value 3</t>
-  </si>
-  <si>
-    <t>Andy Title 3</t>
-  </si>
-  <si>
-    <t>Andy Category 3</t>
-  </si>
-  <si>
-    <t>Title 4</t>
-  </si>
-  <si>
-    <t>Value 4</t>
-  </si>
-  <si>
-    <t>Category 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing Checklist
-</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Image Url</t>
-  </si>
-  <si>
-    <t>https://www.reynaers.in/sites/default/files/public/styles/carousel_full/public/projects/images/experience%20centre_building%203.jpg?itok=t98F6lNQ</t>
-  </si>
-  <si>
-    <t>Closing Property 555 Test</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
+    <t>https://static.pexels.com/photos/87223/pexels-photo-87223.jpeg</t>
+  </si>
+  <si>
+    <t>Closing Statement</t>
+  </si>
+  <si>
+    <t>6135 NW 167th Street Miami Lakes, FL 33015</t>
+  </si>
+  <si>
+    <t>40-237229</t>
+  </si>
+  <si>
+    <t>Real Estate 1934, LLC</t>
+  </si>
+  <si>
+    <t>Property Details</t>
+  </si>
+  <si>
+    <t>Date Purchased</t>
+  </si>
+  <si>
+    <t>Cost Basis</t>
+  </si>
+  <si>
+    <t>Gross Square Footage</t>
+  </si>
+  <si>
+    <t>11,000 SF</t>
+  </si>
+  <si>
+    <t>Net Rentable SF</t>
+  </si>
+  <si>
+    <t>10,500 SF</t>
+  </si>
+  <si>
+    <t>Most Recent Apprasial Date</t>
+  </si>
+  <si>
+    <t>Most Recent Apprasial Value</t>
+  </si>
+  <si>
+    <t>Appraisal LTV</t>
+  </si>
+  <si>
+    <t>Implied Equity</t>
+  </si>
+  <si>
+    <t>Loan Details</t>
+  </si>
+  <si>
+    <t>Aggregate Current Loan Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross Collateralized </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Aggregate Current Payment</t>
+  </si>
+  <si>
+    <t>Cross Collateralized Percentage</t>
+  </si>
+  <si>
+    <t>NAP</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Key Biscayne Buisness District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlimited Industrial </t>
+  </si>
+  <si>
+    <t>Ownership Details</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>FEI/EIN Number</t>
+  </si>
+  <si>
+    <t>Most Recent Annual Report</t>
+  </si>
+  <si>
+    <t>Entity Annual Report Compliant</t>
+  </si>
+  <si>
+    <t>Single Purpose Entity</t>
+  </si>
+  <si>
+    <t>Jusrisdiction</t>
+  </si>
+  <si>
+    <t>Florida Limited Liability Company</t>
+  </si>
+  <si>
+    <t>SOS Number</t>
+  </si>
+  <si>
+    <t>L14000107353</t>
+  </si>
+  <si>
+    <t>Next Annual Report Due</t>
+  </si>
+  <si>
+    <t>John Smith, Esq.</t>
+  </si>
+  <si>
+    <t>Registered Agent</t>
+  </si>
+  <si>
+    <t>Independent Director</t>
+  </si>
+  <si>
+    <t>Org Chart/Organizational Documents</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxes </t>
+  </si>
+  <si>
+    <t>Assessors Parcel Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most Recent Taxes </t>
+  </si>
+  <si>
+    <t>2017-$3,354</t>
+  </si>
+  <si>
+    <t>Insurance Provider</t>
+  </si>
+  <si>
+    <t>Hartford Insurance</t>
+  </si>
+  <si>
+    <t>Annual Premium</t>
+  </si>
+  <si>
+    <t>General Aggegate Coverage</t>
+  </si>
+  <si>
+    <t>Parking Spaces Actual</t>
+  </si>
+  <si>
+    <t>CoreLogic Market Data</t>
+  </si>
+  <si>
+    <t>Ray Donovan, LLC</t>
+  </si>
+  <si>
+    <t>Concessions, LLC</t>
+  </si>
+  <si>
+    <t>Coin Cleaners, LLC</t>
+  </si>
+  <si>
+    <t>It's Freaking Hot, LLC</t>
+  </si>
+  <si>
+    <t>Sling Blade, LLC</t>
+  </si>
+  <si>
+    <t>Lifts &amp; Downs, LLC</t>
+  </si>
+  <si>
+    <t>Bad Stuff, LLC</t>
+  </si>
+  <si>
+    <t>Roof Condition</t>
+  </si>
+  <si>
+    <t>Liens</t>
+  </si>
+  <si>
+    <t>Purchase Agreemet</t>
+  </si>
+  <si>
+    <t>www.snoopy.com</t>
+  </si>
+  <si>
+    <t>file:///C:/Users/Jason1/Downloads/As_Is_Residential_Contract_for_Sale_and_Purchase.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,14 +529,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,7 +570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,23 +599,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -537,35 +627,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -877,28 +981,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -908,479 +1012,485 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="7">
-        <v>43040</v>
+        <v>42736</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
         <v>43070</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="12">
         <v>43160</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2000000</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="11" t="s">
-        <v>38</v>
+      <c r="F25" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="13" t="s">
         <v>37</v>
+      </c>
+      <c r="D27" s="22">
+        <v>1895000</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="4">
+        <v>39</v>
+      </c>
+      <c r="D28" s="23">
         <v>50000</v>
       </c>
       <c r="E28" s="6"/>
@@ -1388,726 +1498,1046 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="D32" s="26"/>
       <c r="E32" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0.92</v>
+      </c>
       <c r="E33" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D34" s="26"/>
       <c r="E34" s="6"/>
       <c r="F34" s="11"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="11">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>57</v>
+        <v>138</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="D39" s="24">
+        <v>2000000</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
-        <v>38</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="D40" s="24">
+        <v>8000</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="D41" s="11">
+        <v>3</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="D43" s="26">
+        <v>43070</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="11" t="s">
-        <v>65</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D44" s="26">
+        <v>43070</v>
+      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="11" t="s">
-        <v>67</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="11" t="s">
-        <v>69</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="E48" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="E49" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
-        <v>49</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>78</v>
+        <v>45</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
-        <v>50</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
-        <v>51</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>78</v>
+        <v>47</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
-        <v>53</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>84</v>
+        <v>49</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
-        <v>54</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
-        <v>55</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="12">
-        <v>43191</v>
-      </c>
-      <c r="E58" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>94</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
+        <v>53</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="11">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>53</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="11">
+        <v>4</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>55</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>56</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="12">
+        <v>43191</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>57</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B65" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="17">
+        <v>38838</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>59</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="D66" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>60</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>60</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>59</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>60</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>60</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>60</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>61</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>60</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="17">
+        <v>42559</v>
+      </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
     </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>61</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="22">
+        <v>1895000</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>62</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="19">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>63</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="22">
+        <v>909068</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>64</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="22">
+        <v>1052388</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>65</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>66</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="20">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>67</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>68</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>69</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>70</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="21">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>71</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>72</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
+        <v>73</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>74</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>75</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="21">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>76</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>77</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>78</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="21">
+        <v>42780</v>
+      </c>
+      <c r="F87" s="16"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="E24" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>123</v>
+        <v>93</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
